--- a/data/input/hunting_scenarios.xlsx
+++ b/data/input/hunting_scenarios.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="4" r:id="rId1"/>
-    <sheet name="H0" sheetId="5" r:id="rId2"/>
-    <sheet name="H1" sheetId="1" r:id="rId3"/>
-    <sheet name="H2" sheetId="2" r:id="rId4"/>
-    <sheet name="H3" sheetId="3" r:id="rId5"/>
-    <sheet name="H4" sheetId="6" r:id="rId6"/>
-    <sheet name="H5" sheetId="7" r:id="rId7"/>
-    <sheet name="H6" sheetId="8" r:id="rId8"/>
-    <sheet name="T1" sheetId="11" r:id="rId9"/>
-    <sheet name="T2" sheetId="10" r:id="rId10"/>
-    <sheet name="T3" sheetId="9" r:id="rId11"/>
+    <sheet name="P_H0" sheetId="5" r:id="rId2"/>
+    <sheet name="P_H1" sheetId="1" r:id="rId3"/>
+    <sheet name="P_H2" sheetId="2" r:id="rId4"/>
+    <sheet name="P_H3" sheetId="3" r:id="rId5"/>
+    <sheet name="P_H4" sheetId="6" r:id="rId6"/>
+    <sheet name="P_H5" sheetId="7" r:id="rId7"/>
+    <sheet name="P_H6" sheetId="8" r:id="rId8"/>
+    <sheet name="P_T1" sheetId="11" r:id="rId9"/>
+    <sheet name="P_T2" sheetId="10" r:id="rId10"/>
+    <sheet name="P_T3" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="11">
   <si>
     <t>juvenileF</t>
   </si>
@@ -60,13 +60,24 @@
   <si>
     <t>monthly</t>
   </si>
+  <si>
+    <t>Population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -376,42 +389,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
@@ -435,9 +451,12 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
@@ -461,9 +480,12 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
@@ -487,9 +509,12 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
@@ -513,9 +538,12 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
@@ -539,9 +567,12 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
@@ -565,9 +596,12 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
@@ -591,9 +625,12 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>0</v>
       </c>
       <c r="B9">
@@ -617,9 +654,12 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
@@ -643,9 +683,12 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
@@ -669,9 +712,12 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
@@ -695,9 +741,12 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
@@ -719,6 +768,9 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -729,43 +781,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.01</v>
@@ -788,10 +843,13 @@
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.01</v>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -814,10 +872,13 @@
       <c r="H3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.01</v>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -840,9 +901,12 @@
       <c r="H4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
@@ -866,9 +930,12 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
@@ -892,9 +959,12 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
@@ -918,9 +988,12 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
@@ -944,9 +1017,12 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
@@ -970,10 +1046,13 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.01</v>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -996,10 +1075,13 @@
       <c r="H10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.01</v>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -1022,10 +1104,13 @@
       <c r="H11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.01</v>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -1048,10 +1133,13 @@
       <c r="H12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.01</v>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0.01</v>
@@ -1072,6 +1160,9 @@
         <v>0.01</v>
       </c>
       <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
         <v>0.01</v>
       </c>
     </row>
@@ -1082,41 +1173,49 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.01</v>
@@ -1139,10 +1238,13 @@
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.01</v>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -1165,10 +1267,13 @@
       <c r="H3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.01</v>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -1191,140 +1296,158 @@
       <c r="H4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.01</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="I6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0.01</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.01</v>
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -1347,10 +1470,13 @@
       <c r="H10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.01</v>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -1373,10 +1499,13 @@
       <c r="H11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.01</v>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -1399,10 +1528,13 @@
       <c r="H12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.01</v>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0.01</v>
@@ -1423,6 +1555,9 @@
         <v>0.01</v>
       </c>
       <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
         <v>0.01</v>
       </c>
     </row>
@@ -1433,50 +1568,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>B$17</f>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
+      <c r="C2">
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
         <v>7.3515127520930812E-2</v>
-      </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
-        <v>6.9740513466773457E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
@@ -1484,436 +1623,469 @@
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.9740513466773457E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
+        <v>2.9285530376777613E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>9.0584193891469988E-2</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
         <v>9.0584193891469988E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>9.0584193891469988E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G3">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G4">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G5">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G6">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G7">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G8">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G9">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G10">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G11">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G12">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>7.3515127520930812E-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>6.9740513466773457E-2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>2.9285530376777613E-2</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G13">
         <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>9.0584193891469988E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.6</v>
-      </c>
-      <c r="C16">
-        <v>0.57999999999999996</v>
       </c>
       <c r="D16">
         <v>0.57999999999999996</v>
       </c>
       <c r="E16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F16">
         <v>0.3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>0.68</v>
       </c>
       <c r="H16">
         <v>0.68</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0.68</v>
+      </c>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>1 - (1 - B16)^(1/12)</f>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
+      <c r="C17">
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
         <v>7.3515127520930812E-2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>6.9740513466773457E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -1921,21 +2093,25 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.9740513466773457E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
+        <v>2.9285530376777613E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>9.0584193891469988E-2</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
         <v>9.0584193891469988E-2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>9.0584193891469988E-2</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1946,51 +2122,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
-        <v>6.4376669349901605E-2</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
+        <f>B$17</f>
         <v>6.4376669349901605E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
         <v>6.4376669349901605E-2</v>
       </c>
       <c r="D2">
@@ -2013,14 +2191,17 @@
         <f t="shared" si="0"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
-        <v>6.4376669349901605E-2</v>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
         <v>6.4376669349901605E-2</v>
       </c>
       <c r="C3">
@@ -2047,11 +2228,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
@@ -2081,11 +2265,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -2115,11 +2302,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -2149,11 +2339,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -2183,11 +2376,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -2217,11 +2413,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -2251,11 +2450,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -2285,11 +2487,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -2319,11 +2524,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -2353,11 +2561,14 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -2387,11 +2598,12 @@
         <f t="shared" si="1"/>
         <v>6.4376669349901605E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.55000000000000004</v>
       </c>
@@ -2413,21 +2625,20 @@
       <c r="H16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
-        <v>6.4376669349901605E-2</v>
-      </c>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
+        <f>1 - (1 - B16)^(1/12)</f>
         <v>6.4376669349901605E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
         <v>6.4376669349901605E-2</v>
       </c>
       <c r="D17">
@@ -2450,7 +2661,11 @@
         <f t="shared" si="2"/>
         <v>6.4376669349901605E-2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2461,52 +2676,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
-        <v>0.12551472777883221</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
+        <f>B$17</f>
         <v>0.12551472777883221</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>8.7416109546967213E-3</v>
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
@@ -2514,7 +2731,7 @@
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
@@ -2522,51 +2739,57 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
-        <v>0.12551472777883221</v>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
         <v>0.12551472777883221</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F3">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
@@ -2574,33 +2797,36 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F4">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -2608,33 +2834,36 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F5">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -2642,33 +2871,36 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -2676,33 +2908,36 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -2710,33 +2945,36 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F8">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -2744,33 +2982,36 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -2778,33 +3019,36 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F10">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -2812,33 +3056,36 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F11">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -2846,33 +3093,36 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -2880,70 +3130,70 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0.12551472777883221</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.8</v>
-      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
         <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
         <v>0.8</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="H16">
         <v>0.05</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0.05</v>
+      </c>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
-        <v>0.12551472777883221</v>
-      </c>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
+        <f>1 - (1 - B16)^(1/12)</f>
         <v>0.12551472777883221</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>8.7416109546967213E-3</v>
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -2951,7 +3201,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -2959,13 +3209,17 @@
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2976,509 +3230,550 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
-        <v>9.5462094216042792E-2</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
-        <v>0.12551472777883221</v>
+        <f>B$17</f>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.7</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.8</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.05</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.8</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0.05</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
-        <v>9.5462094216042792E-2</v>
-      </c>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
-        <v>0.12551472777883221</v>
+        <f>1 - (1 - B16)^(1/12)</f>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3489,511 +3784,550 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>B$17</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.10910128185966073</v>
+        <v>1.3451947011868914E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
         <v>1.3451947011868914E-2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.75</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.7</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.15</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.75</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.7</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0.05</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>1 - (1 - B16)^(1/12)</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
-        <v>9.5462094216042792E-2</v>
-      </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.10910128185966073</v>
+        <v>1.3451947011868914E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4004,509 +4338,550 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>B$17</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
+      <c r="C2">
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f t="shared" si="0"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f t="shared" si="0"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f t="shared" si="0"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f t="shared" si="0"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f t="shared" si="0"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f t="shared" si="0"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>3.2822391260539541E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.75</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.25</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.33</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.75</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.25</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.33</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>1 - (1 - B16)^(1/12)</f>
         <v>0.10910128185966073</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
+      <c r="C17">
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="2"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="2"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>0.10910128185966073</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>4.1675471372851991E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>2.3688424222606752E-2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>3.2822391260539541E-2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4517,52 +4892,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A$17</f>
-        <v>0.12551472777883221</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:H2" si="0">B$17</f>
+        <f>B$17</f>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:I2" si="0">C$17</f>
         <v>5.6125687318306472E-2</v>
-      </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
-        <v>8.7416109546967213E-3</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
@@ -4570,436 +4947,469 @@
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
+        <v>5.6125687318306472E-2</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:H13" si="1">A$17</f>
-        <v>0.12551472777883221</v>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:I13" si="1">B$17</f>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C3">
         <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F3">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H3">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F4">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H4">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F5">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F6">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H6">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F7">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F8">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F9">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F10">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F11">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F12">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>8.7416109546967213E-3</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="F13">
         <f t="shared" si="1"/>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>5.6125687318306472E-2</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
       </c>
       <c r="D16">
         <v>0.1</v>
       </c>
       <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>0.8</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.05</v>
       </c>
       <c r="H16">
         <v>0.05</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0.05</v>
+      </c>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1 - (1 - A16)^(1/12)</f>
-        <v>0.12551472777883221</v>
-      </c>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:H17" si="2">1 - (1 - B16)^(1/12)</f>
+        <f>1 - (1 - B16)^(1/12)</f>
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:I17" si="2">1 - (1 - C16)^(1/12)</f>
         <v>5.6125687318306472E-2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>8.7416109546967213E-3</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -5007,21 +5417,25 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
+        <v>5.6125687318306472E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5032,43 +5446,46 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.01</v>
@@ -5091,10 +5508,13 @@
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.01</v>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -5117,10 +5537,13 @@
       <c r="H3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.01</v>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -5143,10 +5566,13 @@
       <c r="H4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.01</v>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -5169,10 +5595,13 @@
       <c r="H5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.01</v>
+      <c r="I5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0.01</v>
@@ -5195,10 +5624,13 @@
       <c r="H6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.01</v>
+      <c r="I6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -5221,10 +5653,13 @@
       <c r="H7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.01</v>
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0.01</v>
@@ -5247,10 +5682,13 @@
       <c r="H8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.01</v>
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -5273,10 +5711,13 @@
       <c r="H9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.01</v>
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -5299,10 +5740,13 @@
       <c r="H10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.01</v>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -5325,10 +5769,13 @@
       <c r="H11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.01</v>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0.01</v>
@@ -5351,10 +5798,13 @@
       <c r="H12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.01</v>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0.01</v>
@@ -5375,6 +5825,9 @@
         <v>0.01</v>
       </c>
       <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
         <v>0.01</v>
       </c>
     </row>

--- a/data/input/hunting_scenarios.xlsx
+++ b/data/input/hunting_scenarios.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9696" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="4" r:id="rId1"/>
-    <sheet name="P_H0" sheetId="5" r:id="rId2"/>
-    <sheet name="P_H1" sheetId="1" r:id="rId3"/>
-    <sheet name="P_H2" sheetId="2" r:id="rId4"/>
-    <sheet name="P_H3" sheetId="3" r:id="rId5"/>
-    <sheet name="P_H4" sheetId="6" r:id="rId6"/>
-    <sheet name="P_H5" sheetId="7" r:id="rId7"/>
-    <sheet name="P_H6" sheetId="8" r:id="rId8"/>
-    <sheet name="P_T1" sheetId="11" r:id="rId9"/>
-    <sheet name="P_T2" sheetId="10" r:id="rId10"/>
-    <sheet name="P_T3" sheetId="9" r:id="rId11"/>
+    <sheet name="P_1" sheetId="1" r:id="rId2"/>
+    <sheet name="P_2" sheetId="2" r:id="rId3"/>
+    <sheet name="P_3" sheetId="3" r:id="rId4"/>
+    <sheet name="P_4" sheetId="6" r:id="rId5"/>
+    <sheet name="P_T1" sheetId="11" r:id="rId6"/>
+    <sheet name="P_T2" sheetId="10" r:id="rId7"/>
+    <sheet name="P_T3" sheetId="9" r:id="rId8"/>
+    <sheet name="R_1" sheetId="12" r:id="rId9"/>
+    <sheet name="A_1" sheetId="13" r:id="rId10"/>
+    <sheet name="A_2" sheetId="14" r:id="rId11"/>
+    <sheet name="A_3" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="13">
   <si>
     <t>juvenileF</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>adultM</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>Maandelijks</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
@@ -102,10 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -392,9 +403,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -417,7 +428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -440,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -463,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -486,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -509,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -532,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -555,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -578,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -601,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -624,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -647,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -670,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -700,15 +711,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -730,281 +741,326 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:G2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="0">SUM(B3:G3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="1">SUM(C2:C13)</f>
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <f>SUM(B16:G16)</f>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1014,18 +1070,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,281 +1103,989 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B2:G2)</f>
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <f>B2/$L2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:R2" si="0">C2/$L2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="1">SUM(B3:G3)</f>
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="2">B3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N13" si="3">C3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="4">D3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P13" si="5">E3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q13" si="6">F3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R13" si="7">G3/$L3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
+        <f t="shared" ref="B6:F13" si="8">B$17</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="9">SUM(C2:C13)</f>
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <f>SUM(L2:L13)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="0">SUM(C2:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <f>SUM(B16:G16)</f>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1331,15 +2095,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1361,404 +2125,407 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <f>B$17</f>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:G2" si="0">C$17</f>
-        <v>7.3515127520930812E-2</v>
+        <f t="shared" ref="C2:H2" si="0">C$17</f>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G2">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H2">
         <f t="shared" si="0"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G13" si="1">B$17</f>
-        <v>1.3451947011868914E-2</v>
+        <f t="shared" ref="B3:H13" si="1">B$17</f>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>7.3515127520930812E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.4376669349901605E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D16">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>0.68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>1 - (1 - B16)^(1/12)</f>
-        <v>1.3451947011868914E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>7.3515127520930812E-2</v>
+        <f t="shared" ref="C17:H17" si="2">1 - (1 - C16)^(1/12)</f>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>6.9740513466773457E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2.9285530376777613E-2</v>
+        <v>6.4376669349901605E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G17">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>9.0584193891469988E-2</v>
-      </c>
-      <c r="H17" t="s">
+        <v>6.4376669349901605E-2</v>
+      </c>
+      <c r="I17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1769,15 +2536,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1799,407 +2566,404 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <f>B$17</f>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:H2" si="0">C$17</f>
-        <v>6.4376669349901605E-2</v>
+        <f t="shared" ref="C2:G2" si="0">C$17</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H2">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G2">
         <f t="shared" si="0"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:H13" si="1">B$17</f>
-        <v>6.4376669349901605E-2</v>
+        <f t="shared" ref="B3:G13" si="1">B$17</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4.2653187775606449E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="C16">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
-        <v>0.55000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="G16">
+        <v>0.05</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>1 - (1 - B16)^(1/12)</f>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:H17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>6.4376669349901605E-2</v>
+        <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
+        <v>0.12551472777883221</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>6.4376669349901605E-2</v>
+        <v>8.7416109546967213E-3</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>6.4376669349901605E-2</v>
+        <v>0.12551472777883221</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="H17">
+        <v>0.12551472777883221</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="2"/>
-        <v>6.4376669349901605E-2</v>
-      </c>
-      <c r="I17" t="s">
+        <v>4.2653187775606449E-3</v>
+      </c>
+      <c r="H17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2216,9 +2980,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2241,13 +3005,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <f>B$17</f>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:G2" si="0">C$17</f>
@@ -2255,11 +3019,11 @@
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
@@ -2270,13 +3034,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:G13" si="1">B$17</f>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
@@ -2284,11 +3048,11 @@
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
@@ -2299,13 +3063,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -2313,11 +3077,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -2328,13 +3092,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -2342,11 +3106,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -2357,13 +3121,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -2371,11 +3135,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -2386,13 +3150,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2400,11 +3164,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -2415,13 +3179,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -2429,11 +3193,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -2444,13 +3208,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2458,11 +3222,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -2473,13 +3237,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2487,11 +3251,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -2502,13 +3266,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2516,11 +3280,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -2531,13 +3295,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -2545,11 +3309,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -2560,13 +3324,13 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2574,11 +3338,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -2589,18 +3353,18 @@
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
         <v>0.8</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F16">
         <v>0.8</v>
@@ -2612,10 +3376,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>1 - (1 - B16)^(1/12)</f>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
@@ -2623,11 +3387,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>8.7416109546967213E-3</v>
+        <v>4.2653187775606449E-3</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -2654,9 +3418,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2679,369 +3443,369 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <f>B$17</f>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:G2" si="0">C$17</f>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
+        <v>1.3451947011868914E-2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:G13" si="1">B$17</f>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
       <c r="D3">
         <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G3">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D4">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G4">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D5">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E5">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G5">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D6">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G6">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D7">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E7">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G7">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>9.5462094216042792E-2</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D8">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.3451947011868914E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.10910128185966073</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>9.5462094216042792E-2</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>4.2653187775606449E-3</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16">
         <v>0.7</v>
       </c>
-      <c r="C16">
-        <v>0.8</v>
-      </c>
       <c r="D16">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E16">
+        <v>0.75</v>
+      </c>
+      <c r="F16">
         <v>0.7</v>
-      </c>
-      <c r="F16">
-        <v>0.8</v>
       </c>
       <c r="G16">
         <v>0.05</v>
@@ -3050,26 +3814,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>1 - (1 - B16)^(1/12)</f>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
+        <v>1.3451947011868914E-2</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.10910128185966073</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -3086,15 +3850,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3117,404 +3881,280 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>B$17</f>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:G2" si="0">C$17</f>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G13" si="1">B$17</f>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>1.3451947011868914E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>9.5462094216042792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0.75</v>
-      </c>
-      <c r="C16">
-        <v>0.7</v>
-      </c>
-      <c r="D16">
-        <v>0.15</v>
-      </c>
-      <c r="E16">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>0.05</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>1 - (1 - B16)^(1/12)</f>
-        <v>0.10910128185966073</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>1.3451947011868914E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.10910128185966073</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>9.5462094216042792E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -3524,15 +4164,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3555,404 +4195,280 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>B$17</f>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:G2" si="0">C$17</f>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G13" si="1">B$17</f>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.10910128185966073</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>4.1675471372851991E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0.75</v>
-      </c>
-      <c r="C16">
-        <v>0.4</v>
-      </c>
-      <c r="D16">
-        <v>0.33</v>
-      </c>
-      <c r="E16">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <v>0.4</v>
-      </c>
-      <c r="G16">
-        <v>0.33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>1 - (1 - B16)^(1/12)</f>
-        <v>0.10910128185966073</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>4.1675471372851991E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.10910128185966073</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>4.1675471372851991E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>3.2822391260539541E-2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -3962,15 +4478,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3993,404 +4512,280 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>B$17</f>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:G2" si="0">C$17</f>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:G13" si="1">B$17</f>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>8.7416109546967213E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.12551472777883221</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>5.6125687318306472E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>0.8</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.05</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>1 - (1 - B16)^(1/12)</f>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:G17" si="2">1 - (1 - C16)^(1/12)</f>
-        <v>5.6125687318306472E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>8.7416109546967213E-3</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.12551472777883221</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>5.6125687318306472E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>4.2653187775606449E-3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4400,15 +4795,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4430,281 +4828,332 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H13" si="0">SUM(B2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0.01</v>
-      </c>
-      <c r="G9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>0.01</v>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
